--- a/StockChartingApp.UploadExcelMS/UploadFiles/Calctry1.xlsx
+++ b/StockChartingApp.UploadExcelMS/UploadFiles/Calctry1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
   <si>
     <t xml:space="preserve">Company Code</t>
   </si>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t xml:space="preserve">Time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">500112 </t>
   </si>
   <si>
     <t xml:space="preserve">BSE</t>
@@ -83,6 +80,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -171,7 +169,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -197,11 +195,11 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>5</v>
+      <c r="A2" s="0" t="n">
+        <v>3</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>356.23</v>
@@ -210,15 +208,15 @@
         <v>43624</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>5</v>
+      <c r="A3" s="0" t="n">
+        <v>3</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>361.31</v>
@@ -227,15 +225,15 @@
         <v>43624</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>5</v>
+      <c r="A4" s="0" t="n">
+        <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>358.12</v>
@@ -244,15 +242,15 @@
         <v>43624</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>5</v>
+      <c r="A5" s="0" t="n">
+        <v>3</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>357.09</v>
@@ -261,15 +259,15 @@
         <v>43624</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>5</v>
+      <c r="A6" s="0" t="n">
+        <v>3</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>353.62</v>
@@ -278,15 +276,15 @@
         <v>43624</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>5</v>
+      <c r="A7" s="0" t="n">
+        <v>3</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>349.56</v>
@@ -295,15 +293,15 @@
         <v>43624</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>5</v>
+      <c r="A8" s="0" t="n">
+        <v>3</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>351.43</v>
@@ -312,15 +310,15 @@
         <v>43624</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>5</v>
+      <c r="A9" s="0" t="n">
+        <v>3</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>350.12</v>
@@ -329,15 +327,15 @@
         <v>43624</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>5</v>
+      <c r="A10" s="0" t="n">
+        <v>3</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>348.91</v>
@@ -346,7 +344,7 @@
         <v>43624</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
